--- a/maintainDoc.xlsx
+++ b/maintainDoc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="708" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="708" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -63,11 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>Use "Bootstrap" to build whole website</t>
   </si>
@@ -199,6 +195,139 @@
   </si>
   <si>
     <t>git@github.com:bostonlf/myweb.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>git add README.md</t>
+  </si>
+  <si>
+    <t>git commit -m "first commit"</t>
+  </si>
+  <si>
+    <t>git remote add origin git@github.com:bostonlf/myweb.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push -u origin master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd D:\MyProject\myWeb\myapp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login/loginout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create PO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走马灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踩 顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预览</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +382,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -275,12 +410,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -588,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -596,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -604,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -612,7 +750,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -620,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -628,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -636,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -644,42 +782,42 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -687,32 +825,32 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -720,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -760,7 +898,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -772,10 +910,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -789,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -797,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -805,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -817,51 +955,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4" t="s">
+    </row>
+    <row r="8" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="D8" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
+    <row r="9" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -871,17 +1044,91 @@
     <hyperlink ref="F6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -889,15 +1136,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -909,12 +1193,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -922,12 +1239,45 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -935,12 +1285,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -948,12 +1331,50 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
